--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_CO.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>416.2425375177697</v>
+        <v>800.082961336552</v>
       </c>
       <c r="C2">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D2">
-        <v>24.21198662241337</v>
+        <v>46.53920781912986</v>
       </c>
       <c r="E2">
-        <v>12.88478078484533</v>
+        <v>24.76655468224762</v>
       </c>
       <c r="F2">
-        <v>15.24199506352747</v>
+        <v>29.29748751731927</v>
       </c>
       <c r="G2">
-        <v>171.5024578970704</v>
+        <v>329.6544250596384</v>
       </c>
       <c r="H2">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I2">
-        <v>644.5158992363673</v>
+        <v>1238.859902124994</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>413.4414437255912</v>
+        <v>794.6988229695496</v>
       </c>
       <c r="C3">
-        <v>2.204572211721686</v>
+        <v>4.237531017740484</v>
       </c>
       <c r="D3">
-        <v>51.11419398065043</v>
+        <v>98.24943872927419</v>
       </c>
       <c r="E3">
-        <v>12.88478078484533</v>
+        <v>24.76655468224762</v>
       </c>
       <c r="F3">
-        <v>12.33875790856986</v>
+        <v>23.71701370449655</v>
       </c>
       <c r="G3">
-        <v>147.4319374904641</v>
+        <v>283.3871373319699</v>
       </c>
       <c r="H3">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I3">
-        <v>642.4263539786134</v>
+        <v>1234.843470821167</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>438.0910690967648</v>
+        <v>842.0792405991701</v>
       </c>
       <c r="C4">
-        <v>4.409144423443371</v>
+        <v>8.475062035480969</v>
       </c>
       <c r="D4">
-        <v>40.35331103735562</v>
+        <v>77.5653463652164</v>
       </c>
       <c r="E4">
-        <v>16.10597598105666</v>
+        <v>30.95819335280953</v>
       </c>
       <c r="F4">
-        <v>11.17746304658681</v>
+        <v>21.48482417936746</v>
       </c>
       <c r="G4">
-        <v>135.3966772871609</v>
+        <v>260.2534934681356</v>
       </c>
       <c r="H4">
-        <v>7.024891712465341</v>
+        <v>13.5029355670741</v>
       </c>
       <c r="I4">
-        <v>652.5585325848334</v>
+        <v>1254.319095567254</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>575.3446649135258</v>
+        <v>1105.902020582287</v>
       </c>
       <c r="C5">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D5">
-        <v>65.91040802768082</v>
+        <v>126.6900657298536</v>
       </c>
       <c r="E5">
-        <v>22.54836637347934</v>
+        <v>43.34147069393332</v>
       </c>
       <c r="F5">
-        <v>11.61294861983045</v>
+        <v>22.32189525129087</v>
       </c>
       <c r="G5">
-        <v>78.22919132147072</v>
+        <v>150.3686851149228</v>
       </c>
       <c r="H5">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I5">
-        <v>758.1994476809631</v>
+        <v>1457.377381470595</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>744.5307299611256</v>
+        <v>1431.103977949229</v>
       </c>
       <c r="C6">
-        <v>1.102286105860843</v>
+        <v>2.118765508870242</v>
       </c>
       <c r="D6">
-        <v>56.49463545229782</v>
+        <v>108.591484911303</v>
       </c>
       <c r="E6">
-        <v>26.8432933017611</v>
+        <v>51.59698892134919</v>
       </c>
       <c r="F6">
-        <v>9.725844469108003</v>
+        <v>18.69458727295611</v>
       </c>
       <c r="G6">
-        <v>84.24682142312237</v>
+        <v>161.93550704684</v>
       </c>
       <c r="H6">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I6">
-        <v>925.9542785900467</v>
+        <v>1779.828283996437</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>631.3665407571015</v>
+        <v>1213.584787922334</v>
       </c>
       <c r="C7">
-        <v>1.102286105860843</v>
+        <v>2.118765508870242</v>
       </c>
       <c r="D7">
-        <v>33.62775919779634</v>
+        <v>64.63778863768037</v>
       </c>
       <c r="E7">
-        <v>33.28568369418377</v>
+        <v>63.980266262473</v>
       </c>
       <c r="F7">
-        <v>6.822607314150392</v>
+        <v>13.11411346013339</v>
       </c>
       <c r="G7">
-        <v>78.22919132147072</v>
+        <v>150.3686851149228</v>
       </c>
       <c r="H7">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I7">
-        <v>789.4518481851817</v>
+        <v>1517.449360882895</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>447.054569231737</v>
+        <v>859.3084833735783</v>
       </c>
       <c r="C8">
-        <v>2.645486654066022</v>
+        <v>5.085037221288582</v>
       </c>
       <c r="D8">
-        <v>22.86687625450151</v>
+        <v>43.95369627362267</v>
       </c>
       <c r="E8">
-        <v>20.40090290933844</v>
+        <v>39.21371158022539</v>
       </c>
       <c r="F8">
-        <v>3.919370159192778</v>
+        <v>7.533639647310668</v>
       </c>
       <c r="G8">
-        <v>129.3790471855093</v>
+        <v>248.6866715362184</v>
       </c>
       <c r="H8">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I8">
-        <v>628.2733643121924</v>
+        <v>1207.639221222837</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>277.8685041841373</v>
+        <v>534.106526006635</v>
       </c>
       <c r="C9">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D9">
-        <v>24.21198662241337</v>
+        <v>46.53920781912986</v>
       </c>
       <c r="E9">
-        <v>31.13822023004289</v>
+        <v>59.85250714876508</v>
       </c>
       <c r="F9">
-        <v>4.064532016940659</v>
+        <v>7.812663337951806</v>
       </c>
       <c r="G9">
-        <v>138.4054923379867</v>
+        <v>266.0369044340941</v>
       </c>
       <c r="H9">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I9">
-        <v>478.0150346774775</v>
+        <v>918.8193181525164</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>225.7681596496115</v>
+        <v>433.9615523803909</v>
       </c>
       <c r="C10">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D10">
-        <v>10.76088294329482</v>
+        <v>20.68409236405772</v>
       </c>
       <c r="E10">
-        <v>8.589853856563556</v>
+        <v>16.51103645483174</v>
       </c>
       <c r="F10">
-        <v>2.467751581713971</v>
+        <v>4.743402740899309</v>
       </c>
       <c r="G10">
-        <v>84.24682142312237</v>
+        <v>161.93550704684</v>
       </c>
       <c r="I10">
-        <v>334.2584988872001</v>
+        <v>642.4968751065342</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>148.4579709854765</v>
+        <v>285.3593334511254</v>
       </c>
       <c r="C11">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="D11">
-        <v>4.035331103735559</v>
+        <v>7.756534636521645</v>
       </c>
       <c r="E11">
-        <v>13.95851251691577</v>
+        <v>26.83043423910159</v>
       </c>
       <c r="F11">
-        <v>1.741942292974568</v>
+        <v>3.348284287693631</v>
       </c>
       <c r="G11">
-        <v>90.26445152477396</v>
+        <v>173.5023289787571</v>
       </c>
       <c r="I11">
-        <v>259.1195800873929</v>
+        <v>498.0681748985214</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>84.03281376536407</v>
+        <v>161.5241510100711</v>
       </c>
       <c r="C12">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D12">
-        <v>2.690220735823706</v>
+        <v>5.171023091014431</v>
       </c>
       <c r="E12">
-        <v>8.589853856563556</v>
+        <v>16.51103645483174</v>
       </c>
       <c r="F12">
-        <v>0.8709711464872838</v>
+        <v>1.674142143846816</v>
       </c>
       <c r="G12">
-        <v>27.07933545743218</v>
+        <v>52.05069869362712</v>
       </c>
       <c r="H12">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I12">
-        <v>126.2508659111439</v>
+        <v>242.6738201046539</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>50.9799070176542</v>
+        <v>97.99131827944311</v>
       </c>
       <c r="C13">
-        <v>0.8818288846886742</v>
+        <v>1.695012407096194</v>
       </c>
       <c r="D13">
-        <v>2.690220735823706</v>
+        <v>5.171023091014431</v>
       </c>
       <c r="E13">
-        <v>5.368658660352221</v>
+        <v>10.31939778426984</v>
       </c>
       <c r="F13">
-        <v>0.8709711464872838</v>
+        <v>1.674142143846816</v>
       </c>
       <c r="G13">
-        <v>24.07052040660638</v>
+        <v>46.26728772766855</v>
       </c>
       <c r="I13">
-        <v>84.86210685161247</v>
+        <v>163.1181814333389</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>29.6915941970953</v>
+        <v>57.07186669022513</v>
       </c>
       <c r="C14">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D14">
-        <v>4.035331103735559</v>
+        <v>7.756534636521645</v>
       </c>
       <c r="E14">
-        <v>4.294926928281778</v>
+        <v>8.255518227415871</v>
       </c>
       <c r="F14">
-        <v>1.306456719730925</v>
+        <v>2.511213215770224</v>
       </c>
       <c r="G14">
-        <v>45.13222576238698</v>
+        <v>86.75116448937855</v>
       </c>
       <c r="I14">
-        <v>85.78327803826355</v>
+        <v>164.8888158699557</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>14.00546896089401</v>
+        <v>26.92069183501185</v>
       </c>
       <c r="C15">
-        <v>1.102286105860843</v>
+        <v>2.118765508870242</v>
       </c>
       <c r="D15">
-        <v>4.035331103735559</v>
+        <v>7.756534636521645</v>
       </c>
       <c r="E15">
-        <v>1.073731732070444</v>
+        <v>2.063879556853968</v>
       </c>
       <c r="F15">
-        <v>1.306456719730925</v>
+        <v>2.511213215770224</v>
       </c>
       <c r="G15">
-        <v>21.06170535578059</v>
+        <v>40.48387676171</v>
       </c>
       <c r="I15">
-        <v>42.58497997807238</v>
+        <v>81.85496151473794</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>7.843062618100648</v>
+        <v>15.07558742760663</v>
       </c>
       <c r="C16">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="D16">
-        <v>1.345110367911853</v>
+        <v>2.585511545507215</v>
       </c>
       <c r="F16">
-        <v>0.4354855732436419</v>
+        <v>0.8370710719234078</v>
       </c>
       <c r="G16">
-        <v>36.10578060990957</v>
+        <v>69.40093159150284</v>
       </c>
       <c r="I16">
-        <v>46.39081083268221</v>
+        <v>89.17036094186224</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>38.09487557363172</v>
+        <v>73.22428179123222</v>
       </c>
       <c r="D17">
-        <v>2.690220735823706</v>
+        <v>5.171023091014431</v>
       </c>
       <c r="E17">
-        <v>4.294926928281778</v>
+        <v>8.255518227415871</v>
       </c>
       <c r="F17">
-        <v>1.161294861983045</v>
+        <v>2.232189525129088</v>
       </c>
       <c r="G17">
-        <v>75.22037627064495</v>
+        <v>144.5852741489643</v>
       </c>
       <c r="I17">
-        <v>121.4616943703652</v>
+        <v>233.4682867837559</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>91.87587638346473</v>
+        <v>176.5997384376776</v>
       </c>
       <c r="C18">
-        <v>0.8818288846886742</v>
+        <v>1.695012407096194</v>
       </c>
       <c r="D18">
-        <v>5.380441471647412</v>
+        <v>10.34204618202886</v>
       </c>
       <c r="E18">
-        <v>12.88478078484533</v>
+        <v>24.76655468224762</v>
       </c>
       <c r="F18">
-        <v>3.774208301444897</v>
+        <v>7.254615956669532</v>
       </c>
       <c r="G18">
-        <v>168.4936428462447</v>
+        <v>323.87101409368</v>
       </c>
       <c r="I18">
-        <v>283.2907786723358</v>
+        <v>544.5289817593998</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>290.1933168697238</v>
+        <v>557.7967348214453</v>
       </c>
       <c r="C19">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="D19">
-        <v>13.45110367911853</v>
+        <v>25.85511545507217</v>
       </c>
       <c r="E19">
-        <v>45.09673274695867</v>
+        <v>86.68294138786663</v>
       </c>
       <c r="F19">
-        <v>7.548416602889794</v>
+        <v>14.50923191333906</v>
       </c>
       <c r="G19">
-        <v>240.7052040660639</v>
+        <v>462.6728772766854</v>
       </c>
       <c r="H19">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I19">
-        <v>600.666813505042</v>
+        <v>1154.575132545619</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>585.9888213238053</v>
+        <v>1126.361746376895</v>
       </c>
       <c r="C20">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D20">
-        <v>44.38864214109117</v>
+        <v>85.32188100173808</v>
       </c>
       <c r="E20">
-        <v>37.58061062246555</v>
+        <v>72.23578448988886</v>
       </c>
       <c r="F20">
-        <v>12.48391976631773</v>
+        <v>23.99603739513769</v>
       </c>
       <c r="G20">
-        <v>174.5112729478963</v>
+        <v>335.4378360255971</v>
       </c>
       <c r="H20">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I20">
-        <v>862.2973458821507</v>
+        <v>1657.469748671679</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>643.6913534426891</v>
+        <v>1237.274996737145</v>
       </c>
       <c r="C21">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D21">
-        <v>26.90220735823707</v>
+        <v>51.71023091014433</v>
       </c>
       <c r="E21">
-        <v>27.91702503383155</v>
+        <v>53.66086847820317</v>
       </c>
       <c r="F21">
-        <v>10.88713933109105</v>
+        <v>20.92677679808519</v>
       </c>
       <c r="G21">
-        <v>162.4760127445931</v>
+        <v>312.3041921617627</v>
       </c>
       <c r="H21">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I21">
-        <v>880.3201030968775</v>
+        <v>1692.112293976633</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>503.0764450753128</v>
+        <v>966.9912507136258</v>
       </c>
       <c r="C22">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D22">
-        <v>37.66309030153187</v>
+        <v>72.39432327420205</v>
       </c>
       <c r="E22">
-        <v>27.91702503383155</v>
+        <v>53.66086847820317</v>
       </c>
       <c r="F22">
-        <v>12.7742434818135</v>
+        <v>24.55408477641995</v>
       </c>
       <c r="G22">
-        <v>204.5994234561543</v>
+        <v>393.2719456851826</v>
       </c>
       <c r="H22">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I22">
-        <v>792.5912076914674</v>
+        <v>1523.483698616534</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>354.6184740898364</v>
+        <v>681.6319172624997</v>
       </c>
       <c r="C23">
-        <v>3.747772759926865</v>
+        <v>7.203802730158825</v>
       </c>
       <c r="D23">
-        <v>30.93753846197263</v>
+        <v>59.46676554666595</v>
       </c>
       <c r="E23">
-        <v>10.73731732070444</v>
+        <v>20.63879556853968</v>
       </c>
       <c r="F23">
-        <v>15.67748063677111</v>
+        <v>30.13455858924267</v>
       </c>
       <c r="G23">
-        <v>201.5906084053284</v>
+        <v>387.4885347192242</v>
       </c>
       <c r="H23">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I23">
-        <v>623.3305274280816</v>
+        <v>1198.138319188109</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>361.3410991910653</v>
+        <v>694.5538493433058</v>
       </c>
       <c r="C24">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D24">
-        <v>36.31797993362005</v>
+        <v>69.80881172869482</v>
       </c>
       <c r="E24">
-        <v>16.10597598105666</v>
+        <v>30.95819335280953</v>
       </c>
       <c r="F24">
-        <v>14.51618577478806</v>
+        <v>27.90236906411359</v>
       </c>
       <c r="G24">
-        <v>180.5289030495479</v>
+        <v>347.0046579575142</v>
       </c>
       <c r="H24">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I24">
-        <v>613.1435551338819</v>
+        <v>1178.557372442971</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>340.0527863705067</v>
+        <v>653.6343977540874</v>
       </c>
       <c r="C25">
-        <v>2.865943875238191</v>
+        <v>5.50879032306263</v>
       </c>
       <c r="D25">
-        <v>24.21198662241337</v>
+        <v>46.53920781912986</v>
       </c>
       <c r="E25">
-        <v>13.95851251691577</v>
+        <v>26.83043423910159</v>
       </c>
       <c r="F25">
-        <v>9.145197038116477</v>
+        <v>17.57849251039157</v>
       </c>
       <c r="G25">
-        <v>132.3878622363351</v>
+        <v>254.470082502177</v>
       </c>
       <c r="H25">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I25">
-        <v>524.6294005773728</v>
+        <v>1008.419386738543</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>393.2735684219037</v>
+        <v>755.9330267271328</v>
       </c>
       <c r="C26">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D26">
-        <v>37.66309030153187</v>
+        <v>72.39432327420205</v>
       </c>
       <c r="E26">
-        <v>11.81104905277489</v>
+        <v>22.70267512539364</v>
       </c>
       <c r="F26">
-        <v>14.22586205929231</v>
+        <v>27.34432168283131</v>
       </c>
       <c r="G26">
-        <v>147.4319374904641</v>
+        <v>283.3871373319699</v>
       </c>
       <c r="H26">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I26">
-        <v>610.9664876687901</v>
+        <v>1174.372709830429</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>380.9487557363172</v>
+        <v>732.2428179123223</v>
       </c>
       <c r="C27">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D27">
-        <v>29.59242809406078</v>
+        <v>56.88125400115873</v>
       </c>
       <c r="E27">
-        <v>10.73731732070444</v>
+        <v>20.63879556853968</v>
       </c>
       <c r="F27">
-        <v>8.709711464872841</v>
+        <v>16.74142143846814</v>
       </c>
       <c r="G27">
-        <v>159.4671976937673</v>
+        <v>306.5207811958041</v>
       </c>
       <c r="H27">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I27">
-        <v>593.2261799969473</v>
+        <v>1140.273076521078</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>420.1640688268201</v>
+        <v>807.6207550503556</v>
       </c>
       <c r="C28">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D28">
-        <v>49.7690836127386</v>
+        <v>95.66392718376692</v>
       </c>
       <c r="E28">
-        <v>18.25343944519756</v>
+        <v>35.08595246651746</v>
       </c>
       <c r="F28">
-        <v>12.91940533956137</v>
+        <v>24.83310846706109</v>
       </c>
       <c r="G28">
-        <v>141.4143073888125</v>
+        <v>271.8203154000527</v>
       </c>
       <c r="H28">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I28">
-        <v>648.9595578817184</v>
+        <v>1247.401305868453</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>602.7953840768787</v>
+        <v>1158.66657657891</v>
       </c>
       <c r="C29">
-        <v>2.645486654066022</v>
+        <v>5.085037221288582</v>
       </c>
       <c r="D29">
-        <v>55.14952508438598</v>
+        <v>106.0059733657958</v>
       </c>
       <c r="E29">
-        <v>21.47463464140888</v>
+        <v>41.27759113707937</v>
       </c>
       <c r="F29">
-        <v>13.79037648604866</v>
+        <v>26.50725061090791</v>
       </c>
       <c r="G29">
-        <v>96.28208162642554</v>
+        <v>185.0691509106742</v>
       </c>
       <c r="H29">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I29">
-        <v>797.1552683638321</v>
+        <v>1532.256533801137</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>683.4668852916277</v>
+        <v>1313.729761548578</v>
       </c>
       <c r="C30">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D30">
-        <v>53.80441471647413</v>
+        <v>103.4204618202887</v>
       </c>
       <c r="E30">
-        <v>24.69582983762022</v>
+        <v>47.46922980764123</v>
       </c>
       <c r="F30">
-        <v>9.000035180368601</v>
+        <v>17.29946881975042</v>
       </c>
       <c r="G30">
-        <v>69.20274616899334</v>
+        <v>133.0184522170471</v>
       </c>
       <c r="H30">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I30">
-        <v>848.2740920861125</v>
+        <v>1630.514871614624</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>640.8902596505102</v>
+        <v>1231.890858370142</v>
       </c>
       <c r="C31">
-        <v>2.204572211721686</v>
+        <v>4.237531017740484</v>
       </c>
       <c r="D31">
-        <v>57.83974582020969</v>
+        <v>111.1769964568102</v>
       </c>
       <c r="E31">
-        <v>34.35941542625422</v>
+        <v>66.04414581932697</v>
       </c>
       <c r="F31">
-        <v>6.96776917189827</v>
+        <v>13.39313715077452</v>
       </c>
       <c r="G31">
-        <v>111.3261568805545</v>
+        <v>213.9862057404671</v>
       </c>
       <c r="H31">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I31">
-        <v>855.5950310789959</v>
+        <v>1644.586856145854</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>407.8392561412336</v>
+        <v>783.9305462355449</v>
       </c>
       <c r="C32">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D32">
-        <v>55.14952508438598</v>
+        <v>106.0059733657958</v>
       </c>
       <c r="E32">
-        <v>28.99075676590201</v>
+        <v>55.72474803505713</v>
       </c>
       <c r="F32">
-        <v>6.096798025410988</v>
+        <v>11.71899500692771</v>
       </c>
       <c r="G32">
-        <v>126.3702321346835</v>
+        <v>242.90326057026</v>
       </c>
       <c r="I32">
-        <v>626.2102259209934</v>
+        <v>1203.673548027778</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>257.7006288804498</v>
+        <v>495.3407297642179</v>
       </c>
       <c r="C33">
-        <v>2.645486654066022</v>
+        <v>5.085037221288582</v>
       </c>
       <c r="D33">
-        <v>28.24731772614891</v>
+        <v>54.29574245565151</v>
       </c>
       <c r="E33">
-        <v>34.35941542625422</v>
+        <v>66.04414581932697</v>
       </c>
       <c r="F33">
-        <v>3.338722728201255</v>
+        <v>6.417544884746122</v>
       </c>
       <c r="G33">
-        <v>108.3173418297287</v>
+        <v>208.2027947745085</v>
       </c>
       <c r="I33">
-        <v>434.6089132448489</v>
+        <v>835.3859949197396</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>217.9250970315108</v>
+        <v>418.8859649527845</v>
       </c>
       <c r="C34">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D34">
-        <v>13.45110367911853</v>
+        <v>25.85511545507217</v>
       </c>
       <c r="E34">
-        <v>10.73731732070444</v>
+        <v>20.63879556853968</v>
       </c>
       <c r="F34">
-        <v>2.903237154957613</v>
+        <v>5.580473812822717</v>
       </c>
       <c r="G34">
-        <v>93.27326657559972</v>
+        <v>179.2857399447157</v>
       </c>
       <c r="H34">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I34">
-        <v>340.83677826902</v>
+        <v>655.1413522416494</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>172.5473775982142</v>
+        <v>331.6629234073459</v>
       </c>
       <c r="C35">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D35">
-        <v>14.79621404703039</v>
+        <v>28.44062700057937</v>
       </c>
       <c r="E35">
-        <v>15.03224424898622</v>
+        <v>28.89431379595554</v>
       </c>
       <c r="F35">
-        <v>3.774208301444897</v>
+        <v>7.254615956669532</v>
       </c>
       <c r="G35">
-        <v>99.29089667725134</v>
+        <v>190.8525618766328</v>
       </c>
       <c r="H35">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I35">
-        <v>308.4286118224002</v>
+        <v>592.8478107484459</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>89.07478259128592</v>
+        <v>171.2156000706754</v>
       </c>
       <c r="C36">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D36">
-        <v>8.070662207471118</v>
+        <v>15.51306927304329</v>
       </c>
       <c r="E36">
-        <v>7.516122124493111</v>
+        <v>14.44715689797777</v>
       </c>
       <c r="F36">
-        <v>1.741942292974568</v>
+        <v>3.348284287693631</v>
       </c>
       <c r="G36">
-        <v>48.14104081321277</v>
+        <v>92.53457545533711</v>
       </c>
       <c r="I36">
-        <v>156.0877505776427</v>
+        <v>300.0249576971456</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>54.34121956826874</v>
+        <v>104.4522843198459</v>
       </c>
       <c r="C37">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D37">
-        <v>2.690220735823706</v>
+        <v>5.171023091014431</v>
       </c>
       <c r="E37">
-        <v>5.368658660352221</v>
+        <v>10.31939778426984</v>
       </c>
       <c r="F37">
-        <v>1.887104150722448</v>
+        <v>3.627307978334766</v>
       </c>
       <c r="G37">
-        <v>30.08815050825798</v>
+        <v>57.83410965958568</v>
       </c>
       <c r="H37">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I37">
-        <v>97.36302457289824</v>
+        <v>187.1468915443134</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>26.33028164648075</v>
+        <v>50.61090064982227</v>
       </c>
       <c r="C38">
-        <v>2.204572211721686</v>
+        <v>4.237531017740484</v>
       </c>
       <c r="D38">
-        <v>2.690220735823706</v>
+        <v>5.171023091014431</v>
       </c>
       <c r="E38">
-        <v>5.368658660352221</v>
+        <v>10.31939778426984</v>
       </c>
       <c r="F38">
-        <v>1.306456719730925</v>
+        <v>2.511213215770224</v>
       </c>
       <c r="G38">
-        <v>33.09696555908376</v>
+        <v>63.61752062554426</v>
       </c>
       <c r="I38">
-        <v>70.99715553319305</v>
+        <v>136.4675863841615</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>20.16787530368738</v>
+        <v>38.76579624241705</v>
       </c>
       <c r="C39">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="F39">
-        <v>0.7258092887394032</v>
+        <v>1.395118453205679</v>
       </c>
       <c r="G39">
-        <v>33.09696555908376</v>
+        <v>63.61752062554426</v>
       </c>
       <c r="I39">
-        <v>54.65202181502706</v>
+        <v>105.0496946264891</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>19.60765654525161</v>
+        <v>37.68896856901658</v>
       </c>
       <c r="C40">
-        <v>0.8818288846886742</v>
+        <v>1.695012407096194</v>
       </c>
       <c r="E40">
-        <v>2.147463464140889</v>
+        <v>4.127759113707936</v>
       </c>
       <c r="F40">
-        <v>1.306456719730925</v>
+        <v>2.511213215770224</v>
       </c>
       <c r="G40">
-        <v>63.18511606734175</v>
+        <v>121.45163028513</v>
       </c>
       <c r="I40">
-        <v>87.12852168115384</v>
+        <v>167.4745835907209</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>43.13684439955355</v>
+        <v>82.91573085183649</v>
       </c>
       <c r="C41">
-        <v>0.4409144423443371</v>
+        <v>0.847506203548097</v>
       </c>
       <c r="D41">
-        <v>5.380441471647412</v>
+        <v>10.34204618202886</v>
       </c>
       <c r="E41">
-        <v>4.294926928281778</v>
+        <v>8.255518227415871</v>
       </c>
       <c r="F41">
-        <v>2.61291343946185</v>
+        <v>5.022426431540447</v>
       </c>
       <c r="G41">
-        <v>120.3526020330319</v>
+        <v>231.3364386383427</v>
       </c>
       <c r="I41">
-        <v>176.2186427143209</v>
+        <v>338.7196665347125</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>95.79740769251504</v>
+        <v>184.137532151481</v>
       </c>
       <c r="C42">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D42">
-        <v>12.10599331120668</v>
+        <v>23.26960390956493</v>
       </c>
       <c r="E42">
-        <v>15.03224424898622</v>
+        <v>28.89431379595554</v>
       </c>
       <c r="F42">
-        <v>3.629046443697016</v>
+        <v>6.975592266028398</v>
       </c>
       <c r="G42">
-        <v>153.4495675921157</v>
+        <v>294.9539592638871</v>
       </c>
       <c r="H42">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I42">
-        <v>283.3441145334008</v>
+        <v>544.6315015881537</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>318.7644735499479</v>
+        <v>612.7149461648696</v>
       </c>
       <c r="C43">
-        <v>1.102286105860843</v>
+        <v>2.118765508870242</v>
       </c>
       <c r="D43">
-        <v>16.14132441494224</v>
+        <v>31.02613854608658</v>
       </c>
       <c r="E43">
-        <v>48.31792794317002</v>
+        <v>92.87458005842855</v>
       </c>
       <c r="F43">
-        <v>9.435520753612241</v>
+        <v>18.13653989167384</v>
       </c>
       <c r="G43">
-        <v>234.6875739644122</v>
+        <v>451.1060553447684</v>
       </c>
       <c r="I43">
-        <v>628.4491067319453</v>
+        <v>1207.977025514697</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>576.4651024303975</v>
+        <v>1108.055675929087</v>
       </c>
       <c r="C44">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D44">
-        <v>40.35331103735562</v>
+        <v>77.5653463652164</v>
       </c>
       <c r="E44">
-        <v>38.65434235453598</v>
+        <v>74.29966404674285</v>
       </c>
       <c r="F44">
-        <v>11.61294861983045</v>
+        <v>22.32189525129087</v>
       </c>
       <c r="G44">
-        <v>213.6258686086317</v>
+        <v>410.6221785830585</v>
       </c>
       <c r="H44">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I44">
-        <v>888.055652131326</v>
+        <v>1706.981223557818</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>630.8063219986662</v>
+        <v>1212.507960248932</v>
       </c>
       <c r="C45">
-        <v>2.204572211721686</v>
+        <v>4.237531017740484</v>
       </c>
       <c r="D45">
-        <v>37.66309030153187</v>
+        <v>72.39432327420205</v>
       </c>
       <c r="E45">
-        <v>25.76956156969066</v>
+        <v>49.53310936449523</v>
       </c>
       <c r="F45">
-        <v>9.29035889586436</v>
+        <v>17.8575162010327</v>
       </c>
       <c r="G45">
-        <v>156.4583826429414</v>
+        <v>300.7373702298455</v>
       </c>
       <c r="H45">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I45">
-        <v>866.2065114561107</v>
+        <v>1664.983773517434</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>475.0655071535248</v>
+        <v>913.1498670436021</v>
       </c>
       <c r="C46">
-        <v>3.306858317582527</v>
+        <v>6.356296526610728</v>
       </c>
       <c r="D46">
-        <v>39.00820066944372</v>
+        <v>74.97983481970925</v>
       </c>
       <c r="E46">
-        <v>23.62209810554977</v>
+        <v>45.40535025078728</v>
       </c>
       <c r="F46">
-        <v>11.17746304658681</v>
+        <v>21.48482417936746</v>
       </c>
       <c r="G46">
-        <v>216.6346836594574</v>
+        <v>416.405589549017</v>
       </c>
       <c r="H46">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I46">
-        <v>772.8290347878395</v>
+        <v>1485.497725550279</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>359.660442915758</v>
+        <v>691.3233663231041</v>
       </c>
       <c r="C47">
-        <v>2.204572211721686</v>
+        <v>4.237531017740484</v>
       </c>
       <c r="D47">
-        <v>37.66309030153187</v>
+        <v>72.39432327420205</v>
       </c>
       <c r="E47">
-        <v>17.17970771312711</v>
+        <v>33.02207290966349</v>
       </c>
       <c r="F47">
-        <v>13.79037648604866</v>
+        <v>26.50725061090791</v>
       </c>
       <c r="G47">
-        <v>213.6258686086317</v>
+        <v>410.6221785830585</v>
       </c>
       <c r="H47">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I47">
-        <v>649.1418380314373</v>
+        <v>1247.751676695158</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>349.5765052639144</v>
+        <v>671.9404682018956</v>
       </c>
       <c r="C48">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D48">
-        <v>29.59242809406078</v>
+        <v>56.88125400115873</v>
       </c>
       <c r="E48">
-        <v>18.25343944519756</v>
+        <v>35.08595246651746</v>
       </c>
       <c r="F48">
-        <v>13.20972905505714</v>
+        <v>25.39115584834336</v>
       </c>
       <c r="G48">
-        <v>153.4495675921157</v>
+        <v>294.9539592638871</v>
       </c>
       <c r="H48">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I48">
-        <v>569.6390938342453</v>
+        <v>1094.935024675406</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>360.7808804326296</v>
+        <v>693.4770216699053</v>
       </c>
       <c r="C49">
-        <v>3.527315538754697</v>
+        <v>6.780049628384776</v>
       </c>
       <c r="D49">
-        <v>29.59242809406078</v>
+        <v>56.88125400115873</v>
       </c>
       <c r="E49">
-        <v>13.95851251691577</v>
+        <v>26.83043423910159</v>
       </c>
       <c r="F49">
-        <v>10.88713933109105</v>
+        <v>20.92677679808519</v>
       </c>
       <c r="G49">
-        <v>123.3614170838577</v>
+        <v>237.1198496043014</v>
       </c>
       <c r="H49">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I49">
-        <v>544.1148049151569</v>
+        <v>1045.87336753153</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_CO.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>321.5286667053433</v>
+        <v>187.4337653972233</v>
       </c>
       <c r="C2">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D2">
-        <v>18.70267230114566</v>
+        <v>10.90264307787716</v>
       </c>
       <c r="E2">
-        <v>9.952914498473341</v>
+        <v>5.802009071978256</v>
       </c>
       <c r="F2">
-        <v>11.77375666583858</v>
+        <v>6.863461250163269</v>
       </c>
       <c r="G2">
-        <v>132.477946519294</v>
+        <v>77.22745409496824</v>
       </c>
       <c r="H2">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I2">
-        <v>497.859586835278</v>
+        <v>290.2251234884721</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>319.3649475485107</v>
+        <v>186.1724345399069</v>
       </c>
       <c r="C3">
-        <v>1.702933025820943</v>
+        <v>0.992717546835154</v>
       </c>
       <c r="D3">
-        <v>39.4834193024186</v>
+        <v>23.0166909421851</v>
       </c>
       <c r="E3">
-        <v>9.952914498473341</v>
+        <v>5.802009071978256</v>
       </c>
       <c r="F3">
-        <v>9.531136348536002</v>
+        <v>5.556135297751216</v>
       </c>
       <c r="G3">
-        <v>113.884550516586</v>
+        <v>66.3885131693587</v>
       </c>
       <c r="H3">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I3">
-        <v>496.2455069655159</v>
+        <v>289.2842025101301</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>338.4056761286386</v>
+        <v>197.2721460842916</v>
       </c>
       <c r="C4">
-        <v>3.405866051641885</v>
+        <v>1.985435093670308</v>
       </c>
       <c r="D4">
-        <v>31.17112050190941</v>
+        <v>18.17107179646192</v>
       </c>
       <c r="E4">
-        <v>12.44114312309167</v>
+        <v>7.252511339972823</v>
       </c>
       <c r="F4">
-        <v>8.634088221614961</v>
+        <v>5.033204916786397</v>
       </c>
       <c r="G4">
-        <v>104.5878525152321</v>
+        <v>60.96904270655389</v>
       </c>
       <c r="H4">
-        <v>5.426413358730712</v>
+        <v>3.16330453160116</v>
       </c>
       <c r="I4">
-        <v>504.0721599008592</v>
+        <v>293.8467164693381</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>444.4279148134423</v>
+        <v>259.0773580927973</v>
       </c>
       <c r="C5">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D5">
-        <v>50.91283015311872</v>
+        <v>29.67941726755448</v>
       </c>
       <c r="E5">
-        <v>17.41760037232834</v>
+        <v>10.15351587596195</v>
       </c>
       <c r="F5">
-        <v>8.970481269210348</v>
+        <v>5.229303809648203</v>
       </c>
       <c r="G5">
-        <v>60.42853700880076</v>
+        <v>35.22655800823114</v>
       </c>
       <c r="H5">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I5">
-        <v>585.6750224601453</v>
+        <v>341.4167572790925</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>575.1165518861392</v>
+        <v>335.2617418747104</v>
       </c>
       <c r="C6">
-        <v>0.8514665129104714</v>
+        <v>0.496358773417577</v>
       </c>
       <c r="D6">
-        <v>43.63956870267317</v>
+        <v>25.43950051504669</v>
       </c>
       <c r="E6">
-        <v>20.73523853848613</v>
+        <v>12.0875188999547</v>
       </c>
       <c r="F6">
-        <v>7.512778062963667</v>
+        <v>4.37954194058037</v>
       </c>
       <c r="G6">
-        <v>65.07688600947775</v>
+        <v>37.93629323963352</v>
       </c>
       <c r="H6">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I6">
-        <v>715.2580954378207</v>
+        <v>416.9566571854581</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>487.7022979500967</v>
+        <v>284.303975239126</v>
       </c>
       <c r="C7">
-        <v>0.8514665129104714</v>
+        <v>0.496358773417577</v>
       </c>
       <c r="D7">
-        <v>25.97593375159117</v>
+        <v>15.14255983038493</v>
       </c>
       <c r="E7">
-        <v>25.7116957877228</v>
+        <v>14.98852343594383</v>
       </c>
       <c r="F7">
-        <v>5.270157745661081</v>
+        <v>3.07221598816832</v>
       </c>
       <c r="G7">
-        <v>60.42853700880076</v>
+        <v>35.22655800823114</v>
       </c>
       <c r="H7">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I7">
-        <v>609.8160982987333</v>
+        <v>355.4896945121297</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>345.3295774305035</v>
+        <v>201.3084048277043</v>
       </c>
       <c r="C8">
-        <v>2.043519630985131</v>
+        <v>1.191261056202185</v>
       </c>
       <c r="D8">
-        <v>17.663634951082</v>
+        <v>10.29694068466176</v>
       </c>
       <c r="E8">
-        <v>15.75878128924946</v>
+        <v>9.186514363965573</v>
       </c>
       <c r="F8">
-        <v>3.027537428358493</v>
+        <v>1.764890035756268</v>
       </c>
       <c r="G8">
-        <v>99.93950351455501</v>
+        <v>58.25930747515151</v>
       </c>
       <c r="H8">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I8">
-        <v>485.3129580615138</v>
+        <v>282.9111197381848</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>214.6409403578066</v>
+        <v>125.1240210457911</v>
       </c>
       <c r="C9">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D9">
-        <v>18.70267230114566</v>
+        <v>10.90264307787716</v>
       </c>
       <c r="E9">
-        <v>24.05287670464391</v>
+        <v>14.02152192394746</v>
       </c>
       <c r="F9">
-        <v>3.139668444223623</v>
+        <v>1.830256333376871</v>
       </c>
       <c r="G9">
-        <v>106.9120270155706</v>
+        <v>62.3239103222551</v>
       </c>
       <c r="H9">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I9">
-        <v>369.245146547273</v>
+        <v>215.2498838787203</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>174.3957640407178</v>
+        <v>101.6632670997053</v>
       </c>
       <c r="C10">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D10">
-        <v>8.312298800509186</v>
+        <v>4.845619145723182</v>
       </c>
       <c r="E10">
-        <v>6.635276332315562</v>
+        <v>3.868006047985504</v>
       </c>
       <c r="F10">
-        <v>1.9062272697072</v>
+        <v>1.111227059550243</v>
       </c>
       <c r="G10">
-        <v>65.07688600947775</v>
+        <v>37.93629323963352</v>
       </c>
       <c r="I10">
-        <v>258.1996787811305</v>
+        <v>150.5164018941164</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>114.6771153121346</v>
+        <v>66.8505354377715</v>
       </c>
       <c r="C11">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="D11">
-        <v>3.117112050190941</v>
+        <v>1.817107179646192</v>
       </c>
       <c r="E11">
-        <v>10.78232404001279</v>
+        <v>6.285509827976446</v>
       </c>
       <c r="F11">
-        <v>1.345572190381552</v>
+        <v>0.7843955714472309</v>
       </c>
       <c r="G11">
-        <v>69.72523501015473</v>
+        <v>40.64602847103591</v>
       </c>
       <c r="I11">
-        <v>200.1582385106209</v>
+        <v>116.6813917519278</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>64.91157470498185</v>
+        <v>37.83992571949327</v>
       </c>
       <c r="C12">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D12">
-        <v>2.078074700127297</v>
+        <v>1.211404786430796</v>
       </c>
       <c r="E12">
-        <v>6.635276332315562</v>
+        <v>3.868006047985504</v>
       </c>
       <c r="F12">
-        <v>0.6727860951907761</v>
+        <v>0.3921977857236155</v>
       </c>
       <c r="G12">
-        <v>20.91757050304641</v>
+        <v>12.19380854131077</v>
       </c>
       <c r="H12">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I12">
-        <v>97.52312396729084</v>
+        <v>56.8506893204672</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>39.37968865435565</v>
+        <v>22.95622160315927</v>
       </c>
       <c r="C13">
-        <v>0.681173210328377</v>
+        <v>0.3970870187340617</v>
       </c>
       <c r="D13">
-        <v>2.078074700127297</v>
+        <v>1.211404786430796</v>
       </c>
       <c r="E13">
-        <v>4.147047707697226</v>
+        <v>2.417503779990939</v>
       </c>
       <c r="F13">
-        <v>0.6727860951907761</v>
+        <v>0.3921977857236155</v>
       </c>
       <c r="G13">
-        <v>18.59339600270792</v>
+        <v>10.83894092560958</v>
       </c>
       <c r="I13">
-        <v>65.55216637040724</v>
+        <v>38.21335589964826</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>22.93542306242692</v>
+        <v>13.37010708755429</v>
       </c>
       <c r="C14">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D14">
-        <v>3.117112050190941</v>
+        <v>1.817107179646192</v>
       </c>
       <c r="E14">
-        <v>3.317638166157781</v>
+        <v>1.934003023992752</v>
       </c>
       <c r="F14">
-        <v>1.009179142786164</v>
+        <v>0.5882966785854229</v>
       </c>
       <c r="G14">
-        <v>34.86261750507737</v>
+        <v>20.32301423551796</v>
       </c>
       <c r="I14">
-        <v>66.26372974213174</v>
+        <v>38.6281587333977</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>10.81859578416364</v>
+        <v>6.30665428658221</v>
       </c>
       <c r="C15">
-        <v>0.8514665129104714</v>
+        <v>0.496358773417577</v>
       </c>
       <c r="D15">
-        <v>3.117112050190941</v>
+        <v>1.817107179646192</v>
       </c>
       <c r="E15">
-        <v>0.8294095415394452</v>
+        <v>0.483500755998188</v>
       </c>
       <c r="F15">
-        <v>1.009179142786164</v>
+        <v>0.5882966785854229</v>
       </c>
       <c r="G15">
-        <v>16.26922150236944</v>
+        <v>9.48407330990838</v>
       </c>
       <c r="I15">
-        <v>32.8949845339601</v>
+        <v>19.17599098413797</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>6.058413639131636</v>
+        <v>3.53172640048604</v>
       </c>
       <c r="C16">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="D16">
-        <v>1.039037350063648</v>
+        <v>0.6057023932153978</v>
       </c>
       <c r="F16">
-        <v>0.3363930475953881</v>
+        <v>0.1960988928618077</v>
       </c>
       <c r="G16">
-        <v>27.8900940040619</v>
+        <v>16.25841138841437</v>
       </c>
       <c r="I16">
-        <v>35.83481794859885</v>
+        <v>20.88975433902817</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>29.4265805329251</v>
+        <v>17.15409965950363</v>
       </c>
       <c r="D17">
-        <v>2.078074700127297</v>
+        <v>1.211404786430796</v>
       </c>
       <c r="E17">
-        <v>3.317638166157781</v>
+        <v>1.934003023992752</v>
       </c>
       <c r="F17">
-        <v>0.8970481269210351</v>
+        <v>0.5229303809648201</v>
       </c>
       <c r="G17">
-        <v>58.10436250846228</v>
+        <v>33.87169039252995</v>
       </c>
       <c r="I17">
-        <v>93.8237040345935</v>
+        <v>54.69412824342194</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>70.96998834411347</v>
+        <v>41.37165211997931</v>
       </c>
       <c r="C18">
-        <v>0.681173210328377</v>
+        <v>0.3970870187340617</v>
       </c>
       <c r="D18">
-        <v>4.156149400254593</v>
+        <v>2.422809572861591</v>
       </c>
       <c r="E18">
-        <v>9.952914498473341</v>
+        <v>5.802009071978256</v>
       </c>
       <c r="F18">
-        <v>2.915406412493363</v>
+        <v>1.699523738135666</v>
       </c>
       <c r="G18">
-        <v>130.1537720189555</v>
+        <v>75.87258647926704</v>
       </c>
       <c r="I18">
-        <v>218.8294038846187</v>
+        <v>127.5656680009559</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>224.1613046478706</v>
+        <v>130.6738768179834</v>
       </c>
       <c r="C19">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="D19">
-        <v>10.39037350063647</v>
+        <v>6.057023932153974</v>
       </c>
       <c r="E19">
-        <v>34.83520074465669</v>
+        <v>20.3070317519239</v>
       </c>
       <c r="F19">
-        <v>5.830812824986727</v>
+        <v>3.399047476271332</v>
       </c>
       <c r="G19">
-        <v>185.9339600270793</v>
+        <v>108.3894092560958</v>
       </c>
       <c r="H19">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I19">
-        <v>463.9881373781464</v>
+        <v>270.4799064405938</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>452.6500476094063</v>
+        <v>263.8704153505999</v>
       </c>
       <c r="C20">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D20">
-        <v>34.28823255210036</v>
+        <v>19.98817897610811</v>
       </c>
       <c r="E20">
-        <v>29.02933395388057</v>
+        <v>16.92252645993658</v>
       </c>
       <c r="F20">
-        <v>9.643267364401124</v>
+        <v>5.621501595371818</v>
       </c>
       <c r="G20">
-        <v>134.8021210196325</v>
+        <v>78.58232171066945</v>
       </c>
       <c r="H20">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I20">
-        <v>666.0859737652539</v>
+        <v>388.2919785050165</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>497.2226622401609</v>
+        <v>289.8538310113186</v>
       </c>
       <c r="C21">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D21">
-        <v>20.78074700127295</v>
+        <v>12.11404786430795</v>
       </c>
       <c r="E21">
-        <v>21.56464808002557</v>
+        <v>12.57101965595289</v>
       </c>
       <c r="F21">
-        <v>8.409826189884701</v>
+        <v>4.902472321545193</v>
       </c>
       <c r="G21">
-        <v>125.5054230182785</v>
+        <v>73.16285124786467</v>
       </c>
       <c r="H21">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I21">
-        <v>680.0077443083663</v>
+        <v>396.4076152867376</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>388.6039605671579</v>
+        <v>226.5350219740332</v>
       </c>
       <c r="C22">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D22">
-        <v>29.09304580178211</v>
+        <v>16.95966701003113</v>
       </c>
       <c r="E22">
-        <v>21.56464808002557</v>
+        <v>12.57101965595289</v>
       </c>
       <c r="F22">
-        <v>9.867529396131392</v>
+        <v>5.752234190613024</v>
       </c>
       <c r="G22">
-        <v>158.0438660230173</v>
+        <v>92.13099786768149</v>
       </c>
       <c r="H22">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I22">
-        <v>612.2411125281394</v>
+        <v>356.9033462179543</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>273.9268452550233</v>
+        <v>159.6844865362616</v>
       </c>
       <c r="C23">
-        <v>2.894986143895603</v>
+        <v>1.687619829619762</v>
       </c>
       <c r="D23">
-        <v>23.89785905146389</v>
+        <v>13.93115504395415</v>
       </c>
       <c r="E23">
-        <v>8.294095415394452</v>
+        <v>4.835007559981879</v>
       </c>
       <c r="F23">
-        <v>12.11014971343397</v>
+        <v>7.059560143025074</v>
       </c>
       <c r="G23">
-        <v>155.7196915226789</v>
+        <v>90.77613025198023</v>
       </c>
       <c r="H23">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I23">
-        <v>481.4948385522308</v>
+        <v>280.6853632490523</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>279.1197712314219</v>
+        <v>162.711680593821</v>
       </c>
       <c r="C24">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D24">
-        <v>28.05400845171848</v>
+        <v>16.35396461681573</v>
       </c>
       <c r="E24">
-        <v>12.44114312309167</v>
+        <v>7.252511339972823</v>
       </c>
       <c r="F24">
-        <v>11.21310158651294</v>
+        <v>6.536629762060254</v>
       </c>
       <c r="G24">
-        <v>139.4504700203095</v>
+        <v>81.29205694207182</v>
       </c>
       <c r="H24">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I24">
-        <v>473.6258599537172</v>
+        <v>276.0981757249575</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>262.6755056394932</v>
+        <v>153.1255660782162</v>
       </c>
       <c r="C25">
-        <v>2.213812933567225</v>
+        <v>1.2905328108857</v>
       </c>
       <c r="D25">
-        <v>18.70267230114566</v>
+        <v>10.90264307787716</v>
       </c>
       <c r="E25">
-        <v>10.78232404001279</v>
+        <v>6.285509827976446</v>
       </c>
       <c r="F25">
-        <v>7.064253999503152</v>
+        <v>4.118076750097962</v>
       </c>
       <c r="G25">
-        <v>102.2636780148936</v>
+        <v>59.61417509085272</v>
       </c>
       <c r="H25">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I25">
-        <v>405.2526507453957</v>
+        <v>236.2403049306493</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>303.786169619315</v>
+        <v>177.0908523672285</v>
       </c>
       <c r="C26">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D26">
-        <v>29.09304580178211</v>
+        <v>16.95966701003113</v>
       </c>
       <c r="E26">
-        <v>9.123504956933896</v>
+        <v>5.31850831598007</v>
       </c>
       <c r="F26">
-        <v>10.98883955478268</v>
+        <v>6.405897166819049</v>
       </c>
       <c r="G26">
-        <v>113.884550516586</v>
+        <v>66.3885131693587</v>
       </c>
       <c r="H26">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I26">
-        <v>471.9441731094249</v>
+        <v>275.11784354906</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>294.2658053292508</v>
+        <v>171.5409965950363</v>
       </c>
       <c r="C27">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D27">
-        <v>22.85882170140023</v>
+        <v>13.32545265073874</v>
       </c>
       <c r="E27">
-        <v>8.294095415394452</v>
+        <v>4.835007559981879</v>
       </c>
       <c r="F27">
-        <v>6.727860951907763</v>
+        <v>3.921977857236153</v>
       </c>
       <c r="G27">
-        <v>123.18124851794</v>
+        <v>71.80798363216348</v>
       </c>
       <c r="H27">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I27">
-        <v>458.2405821533303</v>
+        <v>267.1293936273678</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>324.5578735249092</v>
+        <v>189.1996285974663</v>
       </c>
       <c r="C28">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D28">
-        <v>38.44438195235495</v>
+        <v>22.41098854896972</v>
       </c>
       <c r="E28">
-        <v>14.09996220617056</v>
+        <v>8.219512851969199</v>
       </c>
       <c r="F28">
-        <v>9.979660411996514</v>
+        <v>5.817600488233628</v>
       </c>
       <c r="G28">
-        <v>109.236201515909</v>
+        <v>63.67877793795628</v>
       </c>
       <c r="H28">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I28">
-        <v>501.2921135733037</v>
+        <v>292.2261003156001</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>465.6323625504031</v>
+        <v>271.4384004944985</v>
       </c>
       <c r="C29">
-        <v>2.043519630985131</v>
+        <v>1.191261056202185</v>
       </c>
       <c r="D29">
-        <v>42.60053135260954</v>
+        <v>24.8337981218313</v>
       </c>
       <c r="E29">
-        <v>16.5881908307889</v>
+        <v>9.670015119963757</v>
       </c>
       <c r="F29">
-        <v>10.65244650718729</v>
+        <v>6.209798273957245</v>
       </c>
       <c r="G29">
-        <v>74.37358401083168</v>
+        <v>43.35576370243833</v>
       </c>
       <c r="H29">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I29">
-        <v>615.7666444247561</v>
+        <v>358.9585400057492</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>527.9474742671855</v>
+        <v>307.764729185212</v>
       </c>
       <c r="C30">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D30">
-        <v>41.56149400254589</v>
+        <v>24.22809572861589</v>
       </c>
       <c r="E30">
-        <v>19.07641945540724</v>
+        <v>11.12051738795833</v>
       </c>
       <c r="F30">
-        <v>6.95212298363802</v>
+        <v>4.052710452477358</v>
       </c>
       <c r="G30">
-        <v>53.45601350778529</v>
+        <v>31.16195516112755</v>
       </c>
       <c r="H30">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I30">
-        <v>655.2536399946619</v>
+        <v>381.9773157178183</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>495.0589430833281</v>
+        <v>288.592500154002</v>
       </c>
       <c r="C31">
-        <v>1.702933025820943</v>
+        <v>0.992717546835154</v>
       </c>
       <c r="D31">
-        <v>44.67860605273685</v>
+        <v>26.04520290826208</v>
       </c>
       <c r="E31">
-        <v>26.54110532926225</v>
+        <v>15.47202419194202</v>
       </c>
       <c r="F31">
-        <v>5.382288761526209</v>
+        <v>3.137582285788924</v>
       </c>
       <c r="G31">
-        <v>85.99445651252417</v>
+        <v>50.13010178094432</v>
       </c>
       <c r="H31">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I31">
-        <v>660.9087365819787</v>
+        <v>385.2739301625177</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>315.0375092348452</v>
+        <v>183.6497728252741</v>
       </c>
       <c r="C32">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D32">
-        <v>42.60053135260954</v>
+        <v>24.8337981218313</v>
       </c>
       <c r="E32">
-        <v>22.39405762156502</v>
+        <v>13.05452041195108</v>
       </c>
       <c r="F32">
-        <v>4.709502666335434</v>
+        <v>2.745384500065307</v>
       </c>
       <c r="G32">
-        <v>97.6153290142166</v>
+        <v>56.90443985945033</v>
       </c>
       <c r="I32">
-        <v>483.7192763102286</v>
+        <v>281.9820897560403</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>199.0621624286109</v>
+        <v>116.0424388731127</v>
       </c>
       <c r="C33">
-        <v>2.043519630985131</v>
+        <v>1.191261056202185</v>
       </c>
       <c r="D33">
-        <v>21.81978435133658</v>
+        <v>12.71975025752334</v>
       </c>
       <c r="E33">
-        <v>26.54110532926225</v>
+        <v>15.47202419194202</v>
       </c>
       <c r="F33">
-        <v>2.579013364897977</v>
+        <v>1.503424845273859</v>
       </c>
       <c r="G33">
-        <v>83.67028201218565</v>
+        <v>48.7752341652431</v>
       </c>
       <c r="I33">
-        <v>335.7158671172784</v>
+        <v>195.7041333892972</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>168.3373504015863</v>
+        <v>98.13154069921924</v>
       </c>
       <c r="C34">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D34">
-        <v>10.39037350063647</v>
+        <v>6.057023932153974</v>
       </c>
       <c r="E34">
-        <v>8.294095415394452</v>
+        <v>4.835007559981879</v>
       </c>
       <c r="F34">
-        <v>2.242620317302587</v>
+        <v>1.307325952412051</v>
       </c>
       <c r="G34">
-        <v>72.04940951049318</v>
+        <v>42.00089608673712</v>
       </c>
       <c r="H34">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I34">
-        <v>263.2811041718778</v>
+        <v>153.4785971606605</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>133.285100060896</v>
+        <v>77.69798081069285</v>
       </c>
       <c r="C35">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D35">
-        <v>11.42941085070012</v>
+        <v>6.662726325369372</v>
       </c>
       <c r="E35">
-        <v>11.61173358155223</v>
+        <v>6.769010583974633</v>
       </c>
       <c r="F35">
-        <v>2.915406412493363</v>
+        <v>1.699523738135666</v>
       </c>
       <c r="G35">
-        <v>76.69775851117018</v>
+        <v>44.71063131813951</v>
       </c>
       <c r="H35">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I35">
-        <v>238.2472510484408</v>
+        <v>138.8852192158353</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>68.80626918728076</v>
+        <v>40.11032126266289</v>
       </c>
       <c r="C36">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D36">
-        <v>6.234224100381883</v>
+        <v>3.634214359292384</v>
       </c>
       <c r="E36">
-        <v>5.805866790776117</v>
+        <v>3.384505291987316</v>
       </c>
       <c r="F36">
-        <v>1.345572190381552</v>
+        <v>0.7843955714472309</v>
       </c>
       <c r="G36">
-        <v>37.18679200541584</v>
+        <v>21.67788185121917</v>
       </c>
       <c r="I36">
-        <v>120.5707773923108</v>
+        <v>70.2862206193936</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>41.97615164255489</v>
+        <v>24.46981863193898</v>
       </c>
       <c r="C37">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D37">
-        <v>2.078074700127297</v>
+        <v>1.211404786430796</v>
       </c>
       <c r="E37">
-        <v>4.147047707697226</v>
+        <v>2.417503779990939</v>
       </c>
       <c r="F37">
-        <v>1.457703206246682</v>
+        <v>0.8497618690678329</v>
       </c>
       <c r="G37">
-        <v>23.24174500338491</v>
+        <v>13.54867615701198</v>
       </c>
       <c r="H37">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I37">
-        <v>75.20856389163995</v>
+        <v>43.84251166396376</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>20.33896007422763</v>
+        <v>11.85651005877456</v>
       </c>
       <c r="C38">
-        <v>1.702933025820943</v>
+        <v>0.992717546835154</v>
       </c>
       <c r="D38">
-        <v>2.078074700127297</v>
+        <v>1.211404786430796</v>
       </c>
       <c r="E38">
-        <v>4.147047707697226</v>
+        <v>2.417503779990939</v>
       </c>
       <c r="F38">
-        <v>1.009179142786164</v>
+        <v>0.5882966785854229</v>
       </c>
       <c r="G38">
-        <v>25.56591950372339</v>
+        <v>14.90354377271318</v>
       </c>
       <c r="I38">
-        <v>54.84211415438265</v>
+        <v>31.96997662333006</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>15.57877792919564</v>
+        <v>9.081582172678385</v>
       </c>
       <c r="C39">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="F39">
-        <v>0.5606550793256467</v>
+        <v>0.3268314881030127</v>
       </c>
       <c r="G39">
-        <v>25.56591950372339</v>
+        <v>14.90354377271318</v>
       </c>
       <c r="I39">
-        <v>42.21623241999096</v>
+        <v>24.60977269754513</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>15.1460340978291</v>
+        <v>8.8293160012151</v>
       </c>
       <c r="C40">
-        <v>0.681173210328377</v>
+        <v>0.3970870187340617</v>
       </c>
       <c r="E40">
-        <v>1.65881908307889</v>
+        <v>0.967001511996376</v>
       </c>
       <c r="F40">
-        <v>1.009179142786164</v>
+        <v>0.5882966785854229</v>
       </c>
       <c r="G40">
-        <v>48.8076645071083</v>
+        <v>28.45221992972516</v>
       </c>
       <c r="I40">
-        <v>67.30287004113083</v>
+        <v>39.23392114025612</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>33.321275015224</v>
+        <v>19.42449520267321</v>
       </c>
       <c r="C41">
-        <v>0.3405866051641885</v>
+        <v>0.1985435093670308</v>
       </c>
       <c r="D41">
-        <v>4.156149400254593</v>
+        <v>2.422809572861591</v>
       </c>
       <c r="E41">
-        <v>3.317638166157781</v>
+        <v>1.934003023992752</v>
       </c>
       <c r="F41">
-        <v>2.018358285572329</v>
+        <v>1.176593357170846</v>
       </c>
       <c r="G41">
-        <v>92.96698001353964</v>
+        <v>54.19470462804791</v>
       </c>
       <c r="I41">
-        <v>136.1209874859125</v>
+        <v>79.35114929411334</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>73.99919516367929</v>
+        <v>43.13751532022236</v>
       </c>
       <c r="C42">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D42">
-        <v>9.351336150572831</v>
+        <v>5.451321538938578</v>
       </c>
       <c r="E42">
-        <v>11.61173358155223</v>
+        <v>6.769010583974633</v>
       </c>
       <c r="F42">
-        <v>2.803275396628234</v>
+        <v>1.634157440515064</v>
       </c>
       <c r="G42">
-        <v>118.532899517263</v>
+        <v>69.09824840076112</v>
       </c>
       <c r="H42">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I42">
-        <v>218.8706034419684</v>
+        <v>127.589685107256</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>246.2312400475644</v>
+        <v>143.5394515626112</v>
       </c>
       <c r="C43">
-        <v>0.8514665129104714</v>
+        <v>0.496358773417577</v>
       </c>
       <c r="D43">
-        <v>12.46844820076377</v>
+        <v>7.268428718584768</v>
       </c>
       <c r="E43">
-        <v>37.32342936927503</v>
+        <v>21.75753401991847</v>
       </c>
       <c r="F43">
-        <v>7.288516031233407</v>
+        <v>4.248809345339167</v>
       </c>
       <c r="G43">
-        <v>181.2856110264023</v>
+        <v>105.6796740246934</v>
       </c>
       <c r="I43">
-        <v>485.4487111881493</v>
+        <v>282.9902564445646</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>445.2934024761752</v>
+        <v>259.581890435724</v>
       </c>
       <c r="C44">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D44">
-        <v>31.17112050190941</v>
+        <v>18.17107179646192</v>
       </c>
       <c r="E44">
-        <v>29.85874349542001</v>
+        <v>17.40602721593477</v>
       </c>
       <c r="F44">
-        <v>8.970481269210348</v>
+        <v>5.229303809648203</v>
       </c>
       <c r="G44">
-        <v>165.0163895240328</v>
+        <v>96.19560071478506</v>
       </c>
       <c r="H44">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I44">
-        <v>685.9831085325809</v>
+        <v>399.8909283848847</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>487.2695541187303</v>
+        <v>284.0517090676628</v>
       </c>
       <c r="C45">
-        <v>1.702933025820943</v>
+        <v>0.992717546835154</v>
       </c>
       <c r="D45">
-        <v>29.09304580178211</v>
+        <v>16.95966701003113</v>
       </c>
       <c r="E45">
-        <v>19.90582899694668</v>
+        <v>11.60401814395651</v>
       </c>
       <c r="F45">
-        <v>7.176385015368281</v>
+        <v>4.183443047718561</v>
       </c>
       <c r="G45">
-        <v>120.8570740176015</v>
+        <v>70.45311601646227</v>
       </c>
       <c r="H45">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I45">
-        <v>669.1056286098101</v>
+        <v>390.0522734221528</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>366.9667689988307</v>
+        <v>213.9217134008686</v>
       </c>
       <c r="C46">
-        <v>2.554399538731414</v>
+        <v>1.489076320252731</v>
       </c>
       <c r="D46">
-        <v>30.13208315184577</v>
+        <v>17.56536940324653</v>
       </c>
       <c r="E46">
-        <v>18.24700991386779</v>
+        <v>10.63701663196014</v>
       </c>
       <c r="F46">
-        <v>8.634088221614961</v>
+        <v>5.033204916786397</v>
       </c>
       <c r="G46">
-        <v>167.3405640243713</v>
+        <v>97.5504683304862</v>
       </c>
       <c r="H46">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I46">
-        <v>596.9757214828223</v>
+        <v>348.004451593087</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>277.8215397373221</v>
+        <v>161.9548820794312</v>
       </c>
       <c r="C47">
-        <v>1.702933025820943</v>
+        <v>0.992717546835154</v>
       </c>
       <c r="D47">
-        <v>29.09304580178211</v>
+        <v>16.95966701003113</v>
       </c>
       <c r="E47">
-        <v>13.27055266463112</v>
+        <v>7.736012095971008</v>
       </c>
       <c r="F47">
-        <v>10.65244650718729</v>
+        <v>6.209798273957245</v>
       </c>
       <c r="G47">
-        <v>165.0163895240328</v>
+        <v>96.19560071478506</v>
       </c>
       <c r="H47">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I47">
-        <v>501.4329168027269</v>
+        <v>292.3081809578688</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>270.0321507727244</v>
+        <v>157.4140909930921</v>
       </c>
       <c r="C48">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D48">
-        <v>22.85882170140023</v>
+        <v>13.32545265073874</v>
       </c>
       <c r="E48">
-        <v>14.09996220617056</v>
+        <v>8.219512851969199</v>
       </c>
       <c r="F48">
-        <v>10.20392244372677</v>
+        <v>5.948333083474834</v>
       </c>
       <c r="G48">
-        <v>118.532899517263</v>
+        <v>69.09824840076112</v>
       </c>
       <c r="H48">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I48">
-        <v>440.0206173929201</v>
+        <v>256.5081428523069</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>278.6870274000554</v>
+        <v>162.4594144223578</v>
       </c>
       <c r="C49">
-        <v>2.724692841313508</v>
+        <v>1.588348074936247</v>
       </c>
       <c r="D49">
-        <v>22.85882170140023</v>
+        <v>13.32545265073874</v>
       </c>
       <c r="E49">
-        <v>10.78232404001279</v>
+        <v>6.285509827976446</v>
       </c>
       <c r="F49">
-        <v>8.409826189884701</v>
+        <v>4.902472321545193</v>
       </c>
       <c r="G49">
-        <v>95.29115451387811</v>
+        <v>55.5495722437491</v>
       </c>
       <c r="H49">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I49">
-        <v>420.304250503325</v>
+        <v>245.0145708360467</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_CO.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>187.4337653972233</v>
+        <v>192.931231041836</v>
       </c>
       <c r="C2">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D2">
-        <v>10.90264307787716</v>
+        <v>18.640976605679</v>
       </c>
       <c r="E2">
-        <v>5.802009071978256</v>
+        <v>9.952914498473341</v>
       </c>
       <c r="F2">
-        <v>6.863461250163269</v>
+        <v>11.55712776153281</v>
       </c>
       <c r="G2">
-        <v>77.22745409496824</v>
+        <v>132.341892921578</v>
       </c>
       <c r="H2">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I2">
-        <v>290.2251234884721</v>
+        <v>368.8477729742824</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>186.1724345399069</v>
+        <v>191.6329051263458</v>
       </c>
       <c r="C3">
-        <v>0.992717546835154</v>
+        <v>1.702933025820943</v>
       </c>
       <c r="D3">
-        <v>23.0166909421851</v>
+        <v>39.35317283421121</v>
       </c>
       <c r="E3">
-        <v>5.802009071978256</v>
+        <v>9.952914498473341</v>
       </c>
       <c r="F3">
-        <v>5.556135297751216</v>
+        <v>9.35577009266942</v>
       </c>
       <c r="G3">
-        <v>66.3885131693587</v>
+        <v>113.7675921606548</v>
       </c>
       <c r="H3">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I3">
-        <v>289.2842025101301</v>
+        <v>368.0908934633459</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>197.2721460842916</v>
+        <v>203.0581731826592</v>
       </c>
       <c r="C4">
-        <v>1.985435093670308</v>
+        <v>3.405866051641885</v>
       </c>
       <c r="D4">
-        <v>18.17107179646192</v>
+        <v>31.06829434279832</v>
       </c>
       <c r="E4">
-        <v>7.252511339972823</v>
+        <v>12.44114312309167</v>
       </c>
       <c r="F4">
-        <v>5.033204916786397</v>
+        <v>8.475227025124065</v>
       </c>
       <c r="G4">
-        <v>60.96904270655389</v>
+        <v>104.4804417801931</v>
       </c>
       <c r="H4">
-        <v>3.16330453160116</v>
+        <v>5.426413358730712</v>
       </c>
       <c r="I4">
-        <v>293.8467164693381</v>
+        <v>368.355558864239</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>259.0773580927973</v>
+        <v>266.6761430416765</v>
       </c>
       <c r="C5">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D5">
-        <v>29.67941726755448</v>
+        <v>50.74488075990395</v>
       </c>
       <c r="E5">
-        <v>10.15351587596195</v>
+        <v>17.41760037232834</v>
       </c>
       <c r="F5">
-        <v>5.229303809648203</v>
+        <v>8.805430675453573</v>
       </c>
       <c r="G5">
-        <v>35.22655800823114</v>
+        <v>60.36647747300048</v>
       </c>
       <c r="H5">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I5">
-        <v>341.4167572790925</v>
+        <v>407.5281911656078</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>335.2617418747104</v>
+        <v>345.0950283372813</v>
       </c>
       <c r="C6">
-        <v>0.496358773417577</v>
+        <v>0.8514665129104714</v>
       </c>
       <c r="D6">
-        <v>25.43950051504669</v>
+        <v>43.49561207991765</v>
       </c>
       <c r="E6">
-        <v>12.0875188999547</v>
+        <v>20.73523853848613</v>
       </c>
       <c r="F6">
-        <v>4.37954194058037</v>
+        <v>7.374548190692368</v>
       </c>
       <c r="G6">
-        <v>37.93629323963352</v>
+        <v>65.01005266323129</v>
       </c>
       <c r="H6">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I6">
-        <v>416.9566571854581</v>
+        <v>484.8875520476896</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>284.303975239126</v>
+        <v>292.6426613514794</v>
       </c>
       <c r="C7">
-        <v>0.496358773417577</v>
+        <v>0.8514665129104714</v>
       </c>
       <c r="D7">
-        <v>15.14255983038493</v>
+        <v>25.89024528566527</v>
       </c>
       <c r="E7">
-        <v>14.98852343594383</v>
+        <v>25.7116957877228</v>
       </c>
       <c r="F7">
-        <v>3.07221598816832</v>
+        <v>5.173190521828976</v>
       </c>
       <c r="G7">
-        <v>35.22655800823114</v>
+        <v>60.36647747300048</v>
       </c>
       <c r="H7">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I7">
-        <v>355.4896945121297</v>
+        <v>414.5117464745579</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>201.3084048277043</v>
+        <v>207.2128161122277</v>
       </c>
       <c r="C8">
-        <v>1.191261056202185</v>
+        <v>2.043519630985131</v>
       </c>
       <c r="D8">
-        <v>10.29694068466176</v>
+        <v>17.60536679425239</v>
       </c>
       <c r="E8">
-        <v>9.186514363965573</v>
+        <v>15.75878128924946</v>
       </c>
       <c r="F8">
-        <v>1.764890035756268</v>
+        <v>2.971832852965581</v>
       </c>
       <c r="G8">
-        <v>58.25930747515151</v>
+        <v>99.8368665899623</v>
       </c>
       <c r="H8">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I8">
-        <v>282.9111197381848</v>
+        <v>346.9795870864228</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>125.1240210457911</v>
+        <v>128.7939308166227</v>
       </c>
       <c r="C9">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D9">
-        <v>10.90264307787716</v>
+        <v>18.640976605679</v>
       </c>
       <c r="E9">
-        <v>14.02152192394746</v>
+        <v>24.05287670464391</v>
       </c>
       <c r="F9">
-        <v>1.830256333376871</v>
+        <v>3.081900736408751</v>
       </c>
       <c r="G9">
-        <v>62.3239103222551</v>
+        <v>106.8022293753086</v>
       </c>
       <c r="H9">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I9">
-        <v>215.2498838787203</v>
+        <v>283.1688759625457</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>101.6632670997053</v>
+        <v>104.645068788506</v>
       </c>
       <c r="C10">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D10">
-        <v>4.845619145723182</v>
+        <v>8.284878491412886</v>
       </c>
       <c r="E10">
-        <v>3.868006047985504</v>
+        <v>6.635276332315562</v>
       </c>
       <c r="F10">
-        <v>1.111227059550243</v>
+        <v>1.871154018533885</v>
       </c>
       <c r="G10">
-        <v>37.93629323963352</v>
+        <v>65.01005266323129</v>
       </c>
       <c r="I10">
-        <v>150.5164018941164</v>
+        <v>188.3196566224026</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>66.8505354377715</v>
+        <v>68.81127352097785</v>
       </c>
       <c r="C11">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="D11">
-        <v>1.817107179646192</v>
+        <v>3.106829434279832</v>
       </c>
       <c r="E11">
-        <v>6.285509827976446</v>
+        <v>10.78232404001279</v>
       </c>
       <c r="F11">
-        <v>0.7843955714472309</v>
+        <v>1.320814601318036</v>
       </c>
       <c r="G11">
-        <v>40.64602847103591</v>
+        <v>69.65362785346213</v>
       </c>
       <c r="I11">
-        <v>116.6813917519278</v>
+        <v>154.1857493577969</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>37.83992571949327</v>
+        <v>38.94977746470447</v>
       </c>
       <c r="C12">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D12">
-        <v>1.211404786430796</v>
+        <v>2.071219622853222</v>
       </c>
       <c r="E12">
-        <v>3.868006047985504</v>
+        <v>6.635276332315562</v>
       </c>
       <c r="F12">
-        <v>0.3921977857236155</v>
+        <v>0.6604073006590179</v>
       </c>
       <c r="G12">
-        <v>12.19380854131077</v>
+        <v>20.89608835603862</v>
       </c>
       <c r="H12">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I12">
-        <v>56.8506893204672</v>
+        <v>71.52061070819983</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>22.95622160315927</v>
+        <v>23.6295316619207</v>
       </c>
       <c r="C13">
-        <v>0.3970870187340617</v>
+        <v>0.681173210328377</v>
       </c>
       <c r="D13">
-        <v>1.211404786430796</v>
+        <v>2.071219622853222</v>
       </c>
       <c r="E13">
-        <v>2.417503779990939</v>
+        <v>4.147047707697226</v>
       </c>
       <c r="F13">
-        <v>0.3921977857236155</v>
+        <v>0.6604073006590179</v>
       </c>
       <c r="G13">
-        <v>10.83894092560958</v>
+        <v>18.57430076092322</v>
       </c>
       <c r="I13">
-        <v>38.21335589964826</v>
+        <v>49.76368026438176</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>13.37010708755429</v>
+        <v>13.76225470419557</v>
       </c>
       <c r="C14">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D14">
-        <v>1.817107179646192</v>
+        <v>3.106829434279832</v>
       </c>
       <c r="E14">
-        <v>1.934003023992752</v>
+        <v>3.317638166157781</v>
       </c>
       <c r="F14">
-        <v>0.5882966785854229</v>
+        <v>0.9906109509885271</v>
       </c>
       <c r="G14">
-        <v>20.32301423551796</v>
+        <v>34.82681392673106</v>
       </c>
       <c r="I14">
-        <v>38.6281587333977</v>
+        <v>57.02590699784534</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>6.30665428658221</v>
+        <v>6.491629577450738</v>
       </c>
       <c r="C15">
-        <v>0.496358773417577</v>
+        <v>0.8514665129104714</v>
       </c>
       <c r="D15">
-        <v>1.817107179646192</v>
+        <v>3.106829434279832</v>
       </c>
       <c r="E15">
-        <v>0.483500755998188</v>
+        <v>0.8294095415394452</v>
       </c>
       <c r="F15">
-        <v>0.5882966785854229</v>
+        <v>0.9906109509885271</v>
       </c>
       <c r="G15">
-        <v>9.48407330990838</v>
+        <v>16.25251316580782</v>
       </c>
       <c r="I15">
-        <v>19.17599098413797</v>
+        <v>28.52245918297684</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>3.53172640048604</v>
+        <v>3.635312563372414</v>
       </c>
       <c r="C16">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="D16">
-        <v>0.6057023932153978</v>
+        <v>1.035609811426611</v>
       </c>
       <c r="F16">
-        <v>0.1960988928618077</v>
+        <v>0.3302036503295089</v>
       </c>
       <c r="G16">
-        <v>16.25841138841437</v>
+        <v>27.86145114138485</v>
       </c>
       <c r="I16">
-        <v>20.88975433902817</v>
+        <v>33.37345707425966</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>17.15409965950363</v>
+        <v>17.65723245066602</v>
       </c>
       <c r="D17">
-        <v>1.211404786430796</v>
+        <v>2.071219622853222</v>
       </c>
       <c r="E17">
-        <v>1.934003023992752</v>
+        <v>3.317638166157781</v>
       </c>
       <c r="F17">
-        <v>0.5229303809648201</v>
+        <v>0.8805430675453573</v>
       </c>
       <c r="G17">
-        <v>33.87169039252995</v>
+        <v>58.04468987788508</v>
       </c>
       <c r="I17">
-        <v>54.69412824342194</v>
+        <v>81.97132318510745</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>41.37165211997931</v>
+        <v>42.58509002807688</v>
       </c>
       <c r="C18">
-        <v>0.3970870187340617</v>
+        <v>0.681173210328377</v>
       </c>
       <c r="D18">
-        <v>2.422809572861591</v>
+        <v>4.142439245706443</v>
       </c>
       <c r="E18">
-        <v>5.802009071978256</v>
+        <v>9.952914498473341</v>
       </c>
       <c r="F18">
-        <v>1.699523738135666</v>
+        <v>2.86176496952241</v>
       </c>
       <c r="G18">
-        <v>75.87258647926704</v>
+        <v>130.0201053264626</v>
       </c>
       <c r="I18">
-        <v>127.5656680009559</v>
+        <v>190.24348727857</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>130.6738768179834</v>
+        <v>134.5065648447793</v>
       </c>
       <c r="C19">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="D19">
-        <v>6.057023932153974</v>
+        <v>10.35609811426611</v>
       </c>
       <c r="E19">
-        <v>20.3070317519239</v>
+        <v>34.83520074465669</v>
       </c>
       <c r="F19">
-        <v>3.399047476271332</v>
+        <v>5.723529939044821</v>
       </c>
       <c r="G19">
-        <v>108.3894092560958</v>
+        <v>185.7430076092322</v>
       </c>
       <c r="H19">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I19">
-        <v>270.4799064405938</v>
+        <v>374.0008868848957</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>263.8704153505999</v>
+        <v>271.6097815205389</v>
       </c>
       <c r="C20">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D20">
-        <v>19.98817897610811</v>
+        <v>34.17512377707814</v>
       </c>
       <c r="E20">
-        <v>16.92252645993658</v>
+        <v>29.02933395388057</v>
       </c>
       <c r="F20">
-        <v>5.621501595371818</v>
+        <v>9.465837976112587</v>
       </c>
       <c r="G20">
-        <v>78.58232171066945</v>
+        <v>134.6636805166933</v>
       </c>
       <c r="H20">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I20">
-        <v>388.2919785050165</v>
+        <v>484.6167290101367</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>289.8538310113186</v>
+        <v>298.3552953796361</v>
       </c>
       <c r="C21">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D21">
-        <v>12.11404786430795</v>
+        <v>20.71219622853222</v>
       </c>
       <c r="E21">
-        <v>12.57101965595289</v>
+        <v>21.56464808002557</v>
       </c>
       <c r="F21">
-        <v>4.902472321545193</v>
+        <v>8.255091258237721</v>
       </c>
       <c r="G21">
-        <v>73.16285124786467</v>
+        <v>125.3765301362318</v>
       </c>
       <c r="H21">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I21">
-        <v>396.4076152867376</v>
+        <v>480.788198861407</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>226.5350219740332</v>
+        <v>233.1793344220306</v>
       </c>
       <c r="C22">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D22">
-        <v>16.95966701003113</v>
+        <v>28.9970747199451</v>
       </c>
       <c r="E22">
-        <v>12.57101965595289</v>
+        <v>21.56464808002557</v>
       </c>
       <c r="F22">
-        <v>5.752234190613024</v>
+        <v>9.685973742998931</v>
       </c>
       <c r="G22">
-        <v>92.13099786768149</v>
+        <v>157.8815564678474</v>
       </c>
       <c r="H22">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I22">
-        <v>356.9033462179543</v>
+        <v>456.3766500928728</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>159.6844865362616</v>
+        <v>164.3680609010527</v>
       </c>
       <c r="C23">
-        <v>1.687619829619762</v>
+        <v>2.894986143895603</v>
       </c>
       <c r="D23">
-        <v>13.93115504395415</v>
+        <v>23.81902566281205</v>
       </c>
       <c r="E23">
-        <v>4.835007559981879</v>
+        <v>8.294095415394452</v>
       </c>
       <c r="F23">
-        <v>7.059560143025074</v>
+        <v>11.88733141186233</v>
       </c>
       <c r="G23">
-        <v>90.77613025198023</v>
+        <v>155.5597688727321</v>
       </c>
       <c r="H23">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I23">
-        <v>280.6853632490523</v>
+        <v>371.4744798580898</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>162.711680593821</v>
+        <v>167.4840430982291</v>
       </c>
       <c r="C24">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D24">
-        <v>16.35396461681573</v>
+        <v>27.9614649085185</v>
       </c>
       <c r="E24">
-        <v>7.252511339972823</v>
+        <v>12.44114312309167</v>
       </c>
       <c r="F24">
-        <v>6.536629762060254</v>
+        <v>11.00678834431697</v>
       </c>
       <c r="G24">
-        <v>81.29205694207182</v>
+        <v>139.3072557069243</v>
       </c>
       <c r="H24">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I24">
-        <v>276.0981757249575</v>
+        <v>361.5480607217433</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>153.1255660782162</v>
+        <v>157.616766140504</v>
       </c>
       <c r="C25">
-        <v>1.2905328108857</v>
+        <v>2.213812933567225</v>
       </c>
       <c r="D25">
-        <v>10.90264307787716</v>
+        <v>18.640976605679</v>
       </c>
       <c r="E25">
-        <v>6.285509827976446</v>
+        <v>10.78232404001279</v>
       </c>
       <c r="F25">
-        <v>4.118076750097962</v>
+        <v>6.934276656919688</v>
       </c>
       <c r="G25">
-        <v>59.61417509085272</v>
+        <v>102.1586541850778</v>
       </c>
       <c r="H25">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I25">
-        <v>236.2403049306493</v>
+        <v>299.8972143785406</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>177.0908523672285</v>
+        <v>182.2849585348169</v>
       </c>
       <c r="C26">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D26">
-        <v>16.95966701003113</v>
+        <v>28.9970747199451</v>
       </c>
       <c r="E26">
-        <v>5.31850831598007</v>
+        <v>9.123504956933896</v>
       </c>
       <c r="F26">
-        <v>6.405897166819049</v>
+        <v>10.78665257743063</v>
       </c>
       <c r="G26">
-        <v>66.3885131693587</v>
+        <v>113.7675921606548</v>
       </c>
       <c r="H26">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I26">
-        <v>275.11784354906</v>
+        <v>350.0278456098065</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>171.5409965950363</v>
+        <v>176.5723245066602</v>
       </c>
       <c r="C27">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D27">
-        <v>13.32545265073874</v>
+        <v>22.78341585138544</v>
       </c>
       <c r="E27">
-        <v>4.835007559981879</v>
+        <v>8.294095415394452</v>
       </c>
       <c r="F27">
-        <v>3.921977857236153</v>
+        <v>6.604073006590181</v>
       </c>
       <c r="G27">
-        <v>71.80798363216348</v>
+        <v>123.0547425411163</v>
       </c>
       <c r="H27">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I27">
-        <v>267.1293936273678</v>
+        <v>340.2214015585835</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>189.1996285974663</v>
+        <v>194.7488873235222</v>
       </c>
       <c r="C28">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D28">
-        <v>22.41098854896972</v>
+        <v>38.31756302278459</v>
       </c>
       <c r="E28">
-        <v>8.219512851969199</v>
+        <v>14.09996220617056</v>
       </c>
       <c r="F28">
-        <v>5.817600488233628</v>
+        <v>9.796041626442097</v>
       </c>
       <c r="G28">
-        <v>63.67877793795628</v>
+        <v>109.124016970424</v>
       </c>
       <c r="H28">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I28">
-        <v>292.2261003156001</v>
+        <v>371.0605051113068</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>271.4384004944985</v>
+        <v>279.3997370134798</v>
       </c>
       <c r="C29">
-        <v>1.191261056202185</v>
+        <v>2.043519630985131</v>
       </c>
       <c r="D29">
-        <v>24.8337981218313</v>
+        <v>42.46000226849107</v>
       </c>
       <c r="E29">
-        <v>9.670015119963757</v>
+        <v>16.5881908307889</v>
       </c>
       <c r="F29">
-        <v>6.209798273957245</v>
+        <v>10.45644892710112</v>
       </c>
       <c r="G29">
-        <v>43.35576370243833</v>
+        <v>74.29720304369289</v>
       </c>
       <c r="H29">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I29">
-        <v>358.9585400057492</v>
+        <v>429.1211112564894</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>307.764729185212</v>
+        <v>316.7915233795962</v>
       </c>
       <c r="C30">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D30">
-        <v>24.22809572861589</v>
+        <v>41.42439245706444</v>
       </c>
       <c r="E30">
-        <v>11.12051738795833</v>
+        <v>19.07641945540724</v>
       </c>
       <c r="F30">
-        <v>4.052710452477358</v>
+        <v>6.82420877347652</v>
       </c>
       <c r="G30">
-        <v>31.16195516112755</v>
+        <v>53.40111468765428</v>
       </c>
       <c r="H30">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I30">
-        <v>381.9773157178183</v>
+        <v>443.7777745312985</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>288.592500154002</v>
+        <v>297.0569694641458</v>
       </c>
       <c r="C31">
-        <v>0.992717546835154</v>
+        <v>1.702933025820943</v>
       </c>
       <c r="D31">
-        <v>26.04520290826208</v>
+        <v>44.53122189134429</v>
       </c>
       <c r="E31">
-        <v>15.47202419194202</v>
+        <v>26.54110532926225</v>
       </c>
       <c r="F31">
-        <v>3.137582285788924</v>
+        <v>5.283258405272143</v>
       </c>
       <c r="G31">
-        <v>50.13010178094432</v>
+        <v>85.90614101926994</v>
       </c>
       <c r="H31">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I31">
-        <v>385.2739301625177</v>
+        <v>462.5720329518955</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>183.6497728252741</v>
+        <v>189.0362532953656</v>
       </c>
       <c r="C32">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D32">
-        <v>24.8337981218313</v>
+        <v>42.46000226849107</v>
       </c>
       <c r="E32">
-        <v>13.05452041195108</v>
+        <v>22.39405762156502</v>
       </c>
       <c r="F32">
-        <v>2.745384500065307</v>
+        <v>4.622851104613127</v>
       </c>
       <c r="G32">
-        <v>56.90443985945033</v>
+        <v>97.51507899484693</v>
       </c>
       <c r="I32">
-        <v>281.9820897560403</v>
+        <v>357.3905897055385</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>116.0424388731127</v>
+        <v>119.4459842250937</v>
       </c>
       <c r="C33">
-        <v>1.191261056202185</v>
+        <v>2.043519630985131</v>
       </c>
       <c r="D33">
-        <v>12.71975025752334</v>
+        <v>21.74780603995882</v>
       </c>
       <c r="E33">
-        <v>15.47202419194202</v>
+        <v>26.54110532926225</v>
       </c>
       <c r="F33">
-        <v>1.503424845273859</v>
+        <v>2.531561319192902</v>
       </c>
       <c r="G33">
-        <v>48.7752341652431</v>
+        <v>83.58435342415447</v>
       </c>
       <c r="I33">
-        <v>195.7041333892972</v>
+        <v>255.8943299686472</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>98.13154069921924</v>
+        <v>101.0097562251335</v>
       </c>
       <c r="C34">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D34">
-        <v>6.057023932153974</v>
+        <v>10.35609811426611</v>
       </c>
       <c r="E34">
-        <v>4.835007559981879</v>
+        <v>8.294095415394452</v>
       </c>
       <c r="F34">
-        <v>1.307325952412051</v>
+        <v>2.201357668863393</v>
       </c>
       <c r="G34">
-        <v>42.00089608673712</v>
+        <v>71.97541544857749</v>
       </c>
       <c r="H34">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I34">
-        <v>153.4785971606605</v>
+        <v>195.8039778986997</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>77.69798081069285</v>
+        <v>79.97687639419317</v>
       </c>
       <c r="C35">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D35">
-        <v>6.662726325369372</v>
+        <v>11.39170792569272</v>
       </c>
       <c r="E35">
-        <v>6.769010583974633</v>
+        <v>11.61173358155223</v>
       </c>
       <c r="F35">
-        <v>1.699523738135666</v>
+        <v>2.86176496952241</v>
       </c>
       <c r="G35">
-        <v>44.71063131813951</v>
+        <v>76.61899063880828</v>
       </c>
       <c r="H35">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I35">
-        <v>138.8852192158353</v>
+        <v>184.7689151413978</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>40.11032126266289</v>
+        <v>41.28676411258672</v>
       </c>
       <c r="C36">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D36">
-        <v>3.634214359292384</v>
+        <v>6.213658868559665</v>
       </c>
       <c r="E36">
-        <v>3.384505291987316</v>
+        <v>5.805866790776117</v>
       </c>
       <c r="F36">
-        <v>0.7843955714472309</v>
+        <v>1.320814601318036</v>
       </c>
       <c r="G36">
-        <v>21.67788185121917</v>
+        <v>37.14860152184644</v>
       </c>
       <c r="I36">
-        <v>70.2862206193936</v>
+        <v>92.96775901316164</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>24.46981863193898</v>
+        <v>25.18752276050888</v>
       </c>
       <c r="C37">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D37">
-        <v>1.211404786430796</v>
+        <v>2.071219622853222</v>
       </c>
       <c r="E37">
-        <v>2.417503779990939</v>
+        <v>4.147047707697226</v>
       </c>
       <c r="F37">
-        <v>0.8497618690678329</v>
+        <v>1.430882484761205</v>
       </c>
       <c r="G37">
-        <v>13.54867615701198</v>
+        <v>23.21787595115402</v>
       </c>
       <c r="H37">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I37">
-        <v>43.84251166396376</v>
+        <v>58.3623901586035</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>11.85651005877456</v>
+        <v>12.20426360560739</v>
       </c>
       <c r="C38">
-        <v>0.992717546835154</v>
+        <v>1.702933025820943</v>
       </c>
       <c r="D38">
-        <v>1.211404786430796</v>
+        <v>2.071219622853222</v>
       </c>
       <c r="E38">
-        <v>2.417503779990939</v>
+        <v>4.147047707697226</v>
       </c>
       <c r="F38">
-        <v>0.5882966785854229</v>
+        <v>0.9906109509885271</v>
       </c>
       <c r="G38">
-        <v>14.90354377271318</v>
+        <v>25.53966354626944</v>
       </c>
       <c r="I38">
-        <v>31.96997662333006</v>
+        <v>46.65573845923674</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>9.081582172678385</v>
+        <v>9.34794659152907</v>
       </c>
       <c r="C39">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="F39">
-        <v>0.3268314881030127</v>
+        <v>0.5503394172158483</v>
       </c>
       <c r="G39">
-        <v>14.90354377271318</v>
+        <v>25.53966354626944</v>
       </c>
       <c r="I39">
-        <v>24.60977269754513</v>
+        <v>35.94882946276064</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>8.8293160012151</v>
+        <v>9.088281408431042</v>
       </c>
       <c r="C40">
-        <v>0.3970870187340617</v>
+        <v>0.681173210328377</v>
       </c>
       <c r="E40">
-        <v>0.967001511996376</v>
+        <v>1.65881908307889</v>
       </c>
       <c r="F40">
-        <v>0.5882966785854229</v>
+        <v>0.9906109509885271</v>
       </c>
       <c r="G40">
-        <v>28.45221992972516</v>
+        <v>48.75753949742347</v>
       </c>
       <c r="I40">
-        <v>39.23392114025612</v>
+        <v>61.1764241502503</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>19.42449520267321</v>
+        <v>19.99421909854829</v>
       </c>
       <c r="C41">
-        <v>0.1985435093670308</v>
+        <v>0.3405866051641885</v>
       </c>
       <c r="D41">
-        <v>2.422809572861591</v>
+        <v>4.142439245706443</v>
       </c>
       <c r="E41">
-        <v>1.934003023992752</v>
+        <v>3.317638166157781</v>
       </c>
       <c r="F41">
-        <v>1.176593357170846</v>
+        <v>1.981221901977054</v>
       </c>
       <c r="G41">
-        <v>54.19470462804791</v>
+        <v>92.8715038046161</v>
       </c>
       <c r="I41">
-        <v>79.35114929411334</v>
+        <v>122.6476088221699</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>43.13751532022236</v>
+        <v>44.40274630976308</v>
       </c>
       <c r="C42">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D42">
-        <v>5.451321538938578</v>
+        <v>9.320488302839502</v>
       </c>
       <c r="E42">
-        <v>6.769010583974633</v>
+        <v>11.61173358155223</v>
       </c>
       <c r="F42">
-        <v>1.634157440515064</v>
+        <v>2.751697086079242</v>
       </c>
       <c r="G42">
-        <v>69.09824840076112</v>
+        <v>118.4111673508856</v>
       </c>
       <c r="H42">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I42">
-        <v>127.589685107256</v>
+        <v>189.0699962633924</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>143.5394515626112</v>
+        <v>147.7494891827788</v>
       </c>
       <c r="C43">
-        <v>0.496358773417577</v>
+        <v>0.8514665129104714</v>
       </c>
       <c r="D43">
-        <v>7.268428718584768</v>
+        <v>12.42731773711933</v>
       </c>
       <c r="E43">
-        <v>21.75753401991847</v>
+        <v>37.32342936927503</v>
       </c>
       <c r="F43">
-        <v>4.248809345339167</v>
+        <v>7.15441242380603</v>
       </c>
       <c r="G43">
-        <v>105.6796740246934</v>
+        <v>181.0994324190014</v>
       </c>
       <c r="I43">
-        <v>282.9902564445646</v>
+        <v>386.6055476448911</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>259.581890435724</v>
+        <v>267.1954734078722</v>
       </c>
       <c r="C44">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D44">
-        <v>18.17107179646192</v>
+        <v>31.06829434279832</v>
       </c>
       <c r="E44">
-        <v>17.40602721593477</v>
+        <v>29.85874349542001</v>
       </c>
       <c r="F44">
-        <v>5.229303809648203</v>
+        <v>8.805430675453573</v>
       </c>
       <c r="G44">
-        <v>96.19560071478506</v>
+        <v>164.8469192531936</v>
       </c>
       <c r="H44">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I44">
-        <v>399.8909283848847</v>
+        <v>507.4478324405708</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>284.0517090676628</v>
+        <v>292.3829961683814</v>
       </c>
       <c r="C45">
-        <v>0.992717546835154</v>
+        <v>1.702933025820943</v>
       </c>
       <c r="D45">
-        <v>16.95966701003113</v>
+        <v>28.9970747199451</v>
       </c>
       <c r="E45">
-        <v>11.60401814395651</v>
+        <v>19.90582899694668</v>
       </c>
       <c r="F45">
-        <v>4.183443047718561</v>
+        <v>7.044344540362858</v>
       </c>
       <c r="G45">
-        <v>70.45311601646227</v>
+        <v>120.732954946001</v>
       </c>
       <c r="H45">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I45">
-        <v>390.0522734221528</v>
+        <v>473.8669400310184</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>213.9217134008686</v>
+        <v>220.1960752671291</v>
       </c>
       <c r="C46">
-        <v>1.489076320252731</v>
+        <v>2.554399538731414</v>
       </c>
       <c r="D46">
-        <v>17.56536940324653</v>
+        <v>30.03268453137172</v>
       </c>
       <c r="E46">
-        <v>10.63701663196014</v>
+        <v>18.24700991386779</v>
       </c>
       <c r="F46">
-        <v>5.033204916786397</v>
+        <v>8.475227025124065</v>
       </c>
       <c r="G46">
-        <v>97.5504683304862</v>
+        <v>167.1687068483089</v>
       </c>
       <c r="H46">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I46">
-        <v>348.004451593087</v>
+        <v>449.7749107580935</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>161.9548820794312</v>
+        <v>166.705047548935</v>
       </c>
       <c r="C47">
-        <v>0.992717546835154</v>
+        <v>1.702933025820943</v>
       </c>
       <c r="D47">
-        <v>16.95966701003113</v>
+        <v>28.9970747199451</v>
       </c>
       <c r="E47">
-        <v>7.736012095971008</v>
+        <v>13.27055266463112</v>
       </c>
       <c r="F47">
-        <v>6.209798273957245</v>
+        <v>10.45644892710112</v>
       </c>
       <c r="G47">
-        <v>96.19560071478506</v>
+        <v>164.8469192531936</v>
       </c>
       <c r="H47">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I47">
-        <v>292.3081809578688</v>
+        <v>389.8549856815774</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>157.4140909930921</v>
+        <v>162.0310742531705</v>
       </c>
       <c r="C48">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D48">
-        <v>13.32545265073874</v>
+        <v>22.78341585138544</v>
       </c>
       <c r="E48">
-        <v>8.219512851969199</v>
+        <v>14.09996220617056</v>
       </c>
       <c r="F48">
-        <v>5.948333083474834</v>
+        <v>10.01617739332844</v>
       </c>
       <c r="G48">
-        <v>69.09824840076112</v>
+        <v>118.4111673508856</v>
       </c>
       <c r="H48">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I48">
-        <v>256.5081428523069</v>
+        <v>331.6346578065756</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>162.4594144223578</v>
+        <v>167.224377915131</v>
       </c>
       <c r="C49">
-        <v>1.588348074936247</v>
+        <v>2.724692841313508</v>
       </c>
       <c r="D49">
-        <v>13.32545265073874</v>
+        <v>22.78341585138544</v>
       </c>
       <c r="E49">
-        <v>6.285509827976446</v>
+        <v>10.78232404001279</v>
       </c>
       <c r="F49">
-        <v>4.902472321545193</v>
+        <v>8.255091258237721</v>
       </c>
       <c r="G49">
-        <v>55.5495722437491</v>
+        <v>95.19329139973154</v>
       </c>
       <c r="H49">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I49">
-        <v>245.0145708360467</v>
+        <v>308.5135971225922</v>
       </c>
     </row>
   </sheetData>
